--- a/data/trans_dic/P2A_lim_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.10993980043022</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2406867565726816</v>
+        <v>0.2406867565726817</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1215255805786561</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09290527680358537</v>
+        <v>0.09312567773609</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1369957692614456</v>
+        <v>0.1361295937283871</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08776198563948966</v>
+        <v>0.0889096257846701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2089298505736105</v>
+        <v>0.2110960916835594</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1046174493850019</v>
+        <v>0.1032441540699446</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1383459165330617</v>
+        <v>0.1398023439431861</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1317209422420239</v>
+        <v>0.131680957229768</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2457936774142382</v>
+        <v>0.2460289911708448</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1047996275240442</v>
+        <v>0.1039865875928418</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1436465337727008</v>
+        <v>0.1443802265356929</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1210929315947285</v>
+        <v>0.1181835630163034</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2378343349428165</v>
+        <v>0.237357236447427</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1306916470521619</v>
+        <v>0.1334830469822167</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1860531201869044</v>
+        <v>0.1894723583541669</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1351024655412965</v>
+        <v>0.136943710499296</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2756138760383509</v>
+        <v>0.2766145836659998</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1426544046972738</v>
+        <v>0.1403796848265634</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1815503824366848</v>
+        <v>0.1789184692455512</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1809266869995421</v>
+        <v>0.181035016826318</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2942993574918764</v>
+        <v>0.2930260508160337</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1311880309338183</v>
+        <v>0.1302641077846976</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1743785719802232</v>
+        <v>0.1751911000893947</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1560244078655536</v>
+        <v>0.1525711100511003</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2777829007912684</v>
+        <v>0.2772881724134517</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03929966849513835</v>
+        <v>0.03935719800821562</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06080386444462117</v>
+        <v>0.06215481778379429</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05291877203501956</v>
+        <v>0.05367008686249411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1088059075487376</v>
+        <v>0.1071935406911782</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04236398622885484</v>
+        <v>0.04354332663325287</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07912022064719808</v>
+        <v>0.07787057108554489</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05356459254829247</v>
+        <v>0.05375542704178635</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1084461407541668</v>
+        <v>0.1084817953322625</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04384747734307795</v>
+        <v>0.0436487115942596</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07321802636572498</v>
+        <v>0.07302130627997001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05590745866349768</v>
+        <v>0.05663903898211913</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.11144825478861</v>
+        <v>0.1120244163949667</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06163705372777865</v>
+        <v>0.06105148104070818</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08616876253096996</v>
+        <v>0.08610683047963254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07563323227934451</v>
+        <v>0.07742826417242007</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1389158175294384</v>
+        <v>0.1371907521555651</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06487150698075528</v>
+        <v>0.06742146908989655</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1066426547495462</v>
+        <v>0.1070188101581929</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07629344310740235</v>
+        <v>0.07601916532643198</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1337983502662226</v>
+        <v>0.1321189700356197</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05976435708559318</v>
+        <v>0.05874145337894596</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09113661092156697</v>
+        <v>0.09127356786966211</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07184083903294808</v>
+        <v>0.07195219109692878</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1309749647257289</v>
+        <v>0.1305877631564923</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.04130489526549317</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09100648081479995</v>
+        <v>0.09100648081479994</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05713337206672778</v>
@@ -969,7 +969,7 @@
         <v>0.044979141170831</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08483246293473422</v>
+        <v>0.0848324629347342</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02260307121072875</v>
+        <v>0.02230259734738779</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03174931064210875</v>
+        <v>0.03265055319380449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02578293046854416</v>
+        <v>0.02692938595391653</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06860332891509335</v>
+        <v>0.06857783267089995</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03804260552940392</v>
+        <v>0.03859497287487582</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05470872459303116</v>
+        <v>0.05339458264168318</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03325714081954183</v>
+        <v>0.03228669524896707</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06181196595131724</v>
+        <v>0.06425078720593905</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0332460860510323</v>
+        <v>0.03382027135036807</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04791776379021277</v>
+        <v>0.04870728100750969</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03256126736636738</v>
+        <v>0.03358382056879679</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07100442610741668</v>
+        <v>0.07106090185851158</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06126896785127634</v>
+        <v>0.05730476713607269</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07762624869719345</v>
+        <v>0.08164276382524574</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05995173708548318</v>
+        <v>0.06363898587789601</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1194263755019174</v>
+        <v>0.1170822261707908</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07993613276051804</v>
+        <v>0.08318831463913437</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1093441392925585</v>
+        <v>0.1100724560549889</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07162715397974358</v>
+        <v>0.06968618426718068</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09630528730533824</v>
+        <v>0.09858205727927356</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06219146491317059</v>
+        <v>0.06202642083169373</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08286625071862296</v>
+        <v>0.08310799939329618</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0591823226717145</v>
+        <v>0.05781444566354046</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1012776067690856</v>
+        <v>0.1028173170224235</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05826097621438767</v>
+        <v>0.05858168807389409</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08548772030530231</v>
+        <v>0.08541566324748315</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0615341229415569</v>
+        <v>0.06224018194570168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1230478856968224</v>
+        <v>0.1244334817795155</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07132937077228231</v>
+        <v>0.07196130251483422</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1045622697766883</v>
+        <v>0.1041800905780938</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07852172937323951</v>
+        <v>0.0772159478726597</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1349722950284642</v>
+        <v>0.1341709509569856</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0669753460100523</v>
+        <v>0.06711035356701867</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09788105749186413</v>
+        <v>0.09797345663073204</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07215610032053234</v>
+        <v>0.07230088820531207</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.132958546003264</v>
+        <v>0.1328719909299082</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07543451453477348</v>
+        <v>0.07549964350909698</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1066574144679606</v>
+        <v>0.1062357249268703</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08046421616820126</v>
+        <v>0.08008388436145705</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.148229453292952</v>
+        <v>0.1480267244831732</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09021640678459221</v>
+        <v>0.09128723488776636</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.12709527685976</v>
+        <v>0.1253372180046032</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09863046905693706</v>
+        <v>0.09765742084329292</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1551626714960657</v>
+        <v>0.1548273782331389</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08059379798453752</v>
+        <v>0.08036220624315714</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1133684850167439</v>
+        <v>0.1131555436759712</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08617019447050206</v>
+        <v>0.08541443807375036</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1483930049833243</v>
+        <v>0.1485544016330423</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>95521</v>
+        <v>95748</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>133387</v>
+        <v>132544</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>66108</v>
+        <v>66972</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>120566</v>
+        <v>121816</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>137455</v>
+        <v>135651</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>185079</v>
+        <v>187027</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>130605</v>
+        <v>130566</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>202052</v>
+        <v>202245</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>245445</v>
+        <v>243541</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>332032</v>
+        <v>333728</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>211282</v>
+        <v>206206</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>332754</v>
+        <v>332087</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>134371</v>
+        <v>137241</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>181152</v>
+        <v>184481</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>101768</v>
+        <v>103155</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>159047</v>
+        <v>159624</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>187431</v>
+        <v>184443</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>242878</v>
+        <v>239357</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>179394</v>
+        <v>179502</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>241925</v>
+        <v>240879</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>307248</v>
+        <v>305084</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>403068</v>
+        <v>404946</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>272230</v>
+        <v>266205</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>388646</v>
+        <v>387954</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>66405</v>
+        <v>66503</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>119284</v>
+        <v>121934</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>109281</v>
+        <v>110833</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>240717</v>
+        <v>237150</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>67131</v>
+        <v>69000</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>138928</v>
+        <v>136734</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>106342</v>
+        <v>106721</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>234195</v>
+        <v>234272</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>143572</v>
+        <v>142921</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>272202</v>
+        <v>271470</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>226447</v>
+        <v>229410</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>487241</v>
+        <v>489760</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>104149</v>
+        <v>103160</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>169044</v>
+        <v>168922</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>156188</v>
+        <v>159895</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>307330</v>
+        <v>303514</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>102797</v>
+        <v>106838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>187255</v>
+        <v>187915</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>151466</v>
+        <v>150922</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>288944</v>
+        <v>285318</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>195689</v>
+        <v>192340</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>338817</v>
+        <v>339326</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>290983</v>
+        <v>291434</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>572610</v>
+        <v>570917</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12418</v>
+        <v>12253</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15277</v>
+        <v>15711</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13989</v>
+        <v>14611</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>48324</v>
+        <v>48306</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18124</v>
+        <v>18387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25091</v>
+        <v>24488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>18232</v>
+        <v>17700</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>45046</v>
+        <v>46823</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>34104</v>
+        <v>34693</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>45034</v>
+        <v>45776</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>35517</v>
+        <v>36632</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>101760</v>
+        <v>101841</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33660</v>
+        <v>31483</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37352</v>
+        <v>39285</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32527</v>
+        <v>34528</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>84124</v>
+        <v>82473</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>38083</v>
+        <v>39632</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50149</v>
+        <v>50483</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39267</v>
+        <v>38203</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>70183</v>
+        <v>71842</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>63796</v>
+        <v>63627</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>77879</v>
+        <v>78106</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>64554</v>
+        <v>63062</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>145146</v>
+        <v>147353</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>190354</v>
+        <v>191402</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>292079</v>
+        <v>291832</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>206809</v>
+        <v>209182</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>429906</v>
+        <v>434747</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>240731</v>
+        <v>242864</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>371440</v>
+        <v>370083</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>276793</v>
+        <v>272190</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>500794</v>
+        <v>497820</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>444863</v>
+        <v>445760</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>682128</v>
+        <v>682772</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>496863</v>
+        <v>497860</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>957854</v>
+        <v>957231</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>246465</v>
+        <v>246677</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>364407</v>
+        <v>362967</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>270431</v>
+        <v>269153</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>517886</v>
+        <v>517178</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>304473</v>
+        <v>308087</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>451485</v>
+        <v>445240</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>347678</v>
+        <v>344248</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>575707</v>
+        <v>574463</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>535319</v>
+        <v>533781</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>790059</v>
+        <v>788575</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>593363</v>
+        <v>588159</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1069046</v>
+        <v>1070209</v>
       </c>
     </row>
     <row r="20">
